--- a/example/алгоритм подстановки.xlsx
+++ b/example/алгоритм подстановки.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\aps_qp\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C2D2CFD-5097-4598-A5E2-0E63E5591D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0CB87F-7EFF-4CD8-AAAA-1272CE8A92AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7032" yWindow="4440" windowWidth="23040" windowHeight="12120" xr2:uid="{2AC20995-B4C8-46F7-80A3-8495CB2FAF21}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{2AC20995-B4C8-46F7-80A3-8495CB2FAF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -405,15 +401,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2094AE7-97E9-4212-88D8-2BBADB3A476D}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="30" width="3.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -424,13 +423,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -447,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -459,7 +458,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -474,6 +473,275 @@
       </c>
       <c r="E5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>11</v>
+      </c>
+      <c r="T10">
+        <v>12</v>
+      </c>
+      <c r="U10">
+        <v>13</v>
+      </c>
+      <c r="V10">
+        <v>14</v>
+      </c>
+      <c r="W10">
+        <v>15</v>
+      </c>
+      <c r="X10">
+        <v>16</v>
+      </c>
+      <c r="Y10">
+        <v>17</v>
+      </c>
+      <c r="Z10">
+        <v>18</v>
+      </c>
+      <c r="AA10">
+        <v>19</v>
+      </c>
+      <c r="AB10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/example/алгоритм подстановки.xlsx
+++ b/example/алгоритм подстановки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\aps_qp\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0CB87F-7EFF-4CD8-AAAA-1272CE8A92AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02140E5-C19C-4D1C-A49D-9EEBEBD7E937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{2AC20995-B4C8-46F7-80A3-8495CB2FAF21}"/>
+    <workbookView xWindow="2820" yWindow="2340" windowWidth="26496" windowHeight="13008" xr2:uid="{2AC20995-B4C8-46F7-80A3-8495CB2FAF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -401,18 +401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2094AE7-97E9-4212-88D8-2BBADB3A476D}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AW19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13:AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="30" width="3.6640625" customWidth="1"/>
+    <col min="31" max="44" width="3.44140625" customWidth="1"/>
+    <col min="45" max="49" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -423,13 +425,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -446,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -458,7 +460,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -475,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="H10">
         <v>0</v>
       </c>
@@ -539,8 +541,71 @@
       <c r="AB10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>21</v>
+      </c>
+      <c r="AD10">
+        <v>22</v>
+      </c>
+      <c r="AE10">
+        <v>23</v>
+      </c>
+      <c r="AF10">
+        <v>24</v>
+      </c>
+      <c r="AG10">
+        <v>25</v>
+      </c>
+      <c r="AH10">
+        <v>26</v>
+      </c>
+      <c r="AI10">
+        <v>27</v>
+      </c>
+      <c r="AJ10">
+        <v>28</v>
+      </c>
+      <c r="AK10">
+        <v>29</v>
+      </c>
+      <c r="AL10">
+        <v>30</v>
+      </c>
+      <c r="AM10">
+        <v>31</v>
+      </c>
+      <c r="AN10">
+        <v>32</v>
+      </c>
+      <c r="AO10">
+        <v>33</v>
+      </c>
+      <c r="AP10">
+        <v>34</v>
+      </c>
+      <c r="AQ10">
+        <v>35</v>
+      </c>
+      <c r="AR10">
+        <v>36</v>
+      </c>
+      <c r="AS10">
+        <v>37</v>
+      </c>
+      <c r="AT10">
+        <v>38</v>
+      </c>
+      <c r="AU10">
+        <v>39</v>
+      </c>
+      <c r="AV10">
+        <v>40</v>
+      </c>
+      <c r="AW10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>0</v>
       </c>
@@ -607,8 +672,71 @@
       <c r="AB11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>1</v>
       </c>
@@ -675,8 +803,71 @@
       <c r="AB12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="G13">
         <v>2</v>
       </c>
@@ -742,6 +933,93 @@
       </c>
       <c r="AB13">
         <v>3</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>3</v>
+      </c>
+      <c r="AK13">
+        <v>3</v>
+      </c>
+      <c r="AL13">
+        <v>3</v>
+      </c>
+      <c r="AM13">
+        <v>3</v>
+      </c>
+      <c r="AN13">
+        <v>3</v>
+      </c>
+      <c r="AO13">
+        <v>3</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>3</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>3</v>
+      </c>
+      <c r="AU13">
+        <v>3</v>
+      </c>
+      <c r="AV13">
+        <v>3</v>
+      </c>
+      <c r="AW13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
